--- a/schematic/SAMduino/BOM.xlsx
+++ b/schematic/SAMduino/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SAMduino\schematic\SAMduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16CCF0-209F-41E7-AD4C-209696EDE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23DA35-C1DB-469F-9A80-8FF0CA0A9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t>Reference</t>
   </si>
@@ -82,9 +82,6 @@
     <t>20p</t>
   </si>
   <si>
-    <t xml:space="preserve">C26 C27 C29 C30 C31 </t>
-  </si>
-  <si>
     <t xml:space="preserve">C4 </t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>15k</t>
   </si>
   <si>
-    <t xml:space="preserve">R4 R16 R17 </t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">R8 R13 </t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -412,10 +403,16 @@
     <t>SamacSys_Parts:CM9VT1A</t>
   </si>
   <si>
-    <t>CM9V-T1A-32.768kHz-12.5pF-20PPM-TA-QC</t>
-  </si>
-  <si>
     <t>5k62 ± 1%</t>
+  </si>
+  <si>
+    <t>C26 C27 C29 C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13 </t>
+  </si>
+  <si>
+    <t>R4 R8 R16 R17</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,7 +1372,7 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1389,13 +1386,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1403,7 +1400,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1417,579 +1414,576 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>78</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>84</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
         <v>95</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>102</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>106</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>107</v>
       </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
         <v>110</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>119</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>124</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-      <c r="L51" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/schematic/SAMduino/BOM.xlsx
+++ b/schematic/SAMduino/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SAMduino\schematic\SAMduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23DA35-C1DB-469F-9A80-8FF0CA0A9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9943BF9A-3FDB-4EF6-98C6-6D773876FC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="SAMduino" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>Reference</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve"> Part Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1 C5 C6 C8 C9 C11 C14 C16 C17 C18 C19 C21 C22 C24 C25 </t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>20p</t>
   </si>
   <si>
+    <t xml:space="preserve">C26 C27 C29 C30 </t>
+  </si>
+  <si>
     <t xml:space="preserve">C4 </t>
   </si>
   <si>
@@ -310,6 +310,9 @@
     <t xml:space="preserve">R1 </t>
   </si>
   <si>
+    <t>5k62 Â± 1%</t>
+  </si>
+  <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
@@ -340,12 +343,21 @@
     <t>22k</t>
   </si>
   <si>
+    <t xml:space="preserve">R13 R20 </t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3 </t>
   </si>
   <si>
     <t>15k</t>
   </si>
   <si>
+    <t xml:space="preserve">R4 R8 R16 R17 </t>
+  </si>
+  <si>
     <t>100k</t>
   </si>
   <si>
@@ -358,9 +370,6 @@
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t xml:space="preserve">SW1 SW2 </t>
   </si>
   <si>
@@ -401,24 +410,12 @@
   </si>
   <si>
     <t>SamacSys_Parts:CM9VT1A</t>
-  </si>
-  <si>
-    <t>5k62 ± 1%</t>
-  </si>
-  <si>
-    <t>C26 C27 C29 C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13 </t>
-  </si>
-  <si>
-    <t>R4 R8 R16 R17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,21 +1252,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="59.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,109 +1279,106 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,10 +1389,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1406,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -1798,192 +1792,192 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/schematic/SAMduino/BOM.xlsx
+++ b/schematic/SAMduino/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SAMduino\schematic\SAMduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9943BF9A-3FDB-4EF6-98C6-6D773876FC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B12BB0-80CF-4F93-A4D3-089CA34FF9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMduino" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t>Reference</t>
   </si>
@@ -46,376 +46,379 @@
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C10 </t>
+    <t xml:space="preserve">C7 C10 </t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12 C13 </t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15 C20 </t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23 </t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28 </t>
+  </si>
+  <si>
+    <t>220n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 C3 </t>
+  </si>
+  <si>
+    <t>20p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26 C27 C29 C30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4 </t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>MBR0520LT</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3 </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4 </t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5 </t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7 </t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9 D11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1 </t>
+  </si>
+  <si>
+    <t>ATSAMV71N21B-AABT</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:QFP50P1600X1600X160-100N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC2 </t>
+  </si>
+  <si>
+    <t>AZ1117CH-5.0TRG1</t>
+  </si>
+  <si>
+    <t>SOT230P700X180-4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC3 </t>
+  </si>
+  <si>
+    <t>AZ1117IH-3.3TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC4 </t>
+  </si>
+  <si>
+    <t>SST26VF064B-104V_SM</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:SOIC127P794X203-8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC5 </t>
+  </si>
+  <si>
+    <t>MCP2221-I_SL</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:SOIC127P600X175-14N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC6 </t>
+  </si>
+  <si>
+    <t>MCP2542FD-E_SN</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 </t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector_BarrelJack:BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10 </t>
+  </si>
+  <si>
+    <t>Conn_02x11_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x11_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11 J12 </t>
+  </si>
+  <si>
+    <t>Conn_02x09_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x09_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15 J17 J19 </t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2 J14 J18 </t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J20 </t>
+  </si>
+  <si>
+    <t>Conn_01x08</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x08_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3 </t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_Micro-B_Amphenol_10104110_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4 </t>
+  </si>
+  <si>
+    <t>USB_B_Mini</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_Mini-B_Wuerth_65100516121_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5 J7 J8 J13 J16 </t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6 </t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:1725656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9 </t>
+  </si>
+  <si>
+    <t>Conn_02x07_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x07_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 </t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 L3 L4 </t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 </t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14 R15 </t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5 R6 R9 R10 R11 R12 R18 </t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19 </t>
+  </si>
+  <si>
+    <t>330R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 </t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13 R20 </t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 </t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 R8 R16 R17 </t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7 </t>
+  </si>
+  <si>
+    <t>120R</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1 SW2 </t>
+  </si>
+  <si>
+    <t>SW_MEC_5E</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:FSM16JH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3 </t>
+  </si>
+  <si>
+    <t>MCLR</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:PTS647SK38SMTR2LFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4 </t>
+  </si>
+  <si>
+    <t>ERASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1 </t>
+  </si>
+  <si>
+    <t>12 MHz</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:ASTMUPCE3312000MHZLJET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2 </t>
+  </si>
+  <si>
+    <t>32.768 kHz 12.5 pF</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:CM9VT1A</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12 C15 C20 </t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23 </t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28 </t>
-  </si>
-  <si>
-    <t>220n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2 C3 </t>
-  </si>
-  <si>
-    <t>20p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26 C27 C29 C30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4 </t>
-  </si>
-  <si>
-    <t>10p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7 C13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1 D2 D10 </t>
-  </si>
-  <si>
-    <t>MBR0520LT</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3 </t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4 </t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5 </t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7 </t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9 D11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1 </t>
-  </si>
-  <si>
-    <t>ATSAMV71N21B-AABT</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:QFP50P1600X1600X160-100N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC2 </t>
-  </si>
-  <si>
-    <t>MCP1703AT-5002E_CB</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:SOT95P255X145-3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC3 </t>
-  </si>
-  <si>
-    <t>NCP5501DT33RKG</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:NVD5117PLT4GVF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC4 </t>
-  </si>
-  <si>
-    <t>SST26VF064B-104V_SM</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:SOIC127P794X203-8N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC5 </t>
-  </si>
-  <si>
-    <t>MCP2221-I_SL</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:SOIC127P600X175-14N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC6 </t>
-  </si>
-  <si>
-    <t>MCP2542FD-E_SN</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:SOIC127P600X175-8N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 </t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector_BarrelJack:BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10 </t>
-  </si>
-  <si>
-    <t>Conn_02x11_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x11_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J11 J12 </t>
-  </si>
-  <si>
-    <t>Conn_02x09_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x09_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J15 J17 J19 </t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2 J14 J18 </t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J20 </t>
-  </si>
-  <si>
-    <t>Conn_01x08</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x08_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3 </t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>Connector_USB:USB_Micro-B_Amphenol_10104110_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4 </t>
-  </si>
-  <si>
-    <t>USB_B_Mini</t>
-  </si>
-  <si>
-    <t>Connector_USB:USB_Mini-B_Wuerth_65100516121_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5 J7 J8 J13 J16 </t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6 </t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:1725656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J9 </t>
-  </si>
-  <si>
-    <t>Conn_02x07_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x07_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 </t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2 L3 L4 </t>
-  </si>
-  <si>
-    <t>470R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 </t>
-  </si>
-  <si>
-    <t>5k62 Â± 1%</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14 R15 </t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5 R6 R9 R10 R11 R12 R18 </t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19 </t>
-  </si>
-  <si>
-    <t>330R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 </t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13 R20 </t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3 </t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4 R8 R16 R17 </t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7 </t>
-  </si>
-  <si>
-    <t>120R</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1 SW2 </t>
-  </si>
-  <si>
-    <t>SW_MEC_5E</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:FSM16JH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3 </t>
-  </si>
-  <si>
-    <t>MCLR</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:PTS647SK38SMTR2LFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW4 </t>
-  </si>
-  <si>
-    <t>ERASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1 </t>
-  </si>
-  <si>
-    <t>AMPMAFB-12.0000T</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:AMPMAFB120000T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2 </t>
-  </si>
-  <si>
-    <t>32.768 kHz 12.5 pF</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:CM9VT1A</t>
+    <t>5k62 ± 1%</t>
+  </si>
+  <si>
+    <t>D1 D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1252,18 +1255,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="59.6328125" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1299,10 +1302,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1313,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1327,13 +1330,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1347,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1355,41 +1358,41 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1397,21 +1400,21 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1557,432 +1560,432 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>71</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>74</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>77</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>89</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
         <v>94</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
         <v>112</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>118</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
         <v>123</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>126</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>